--- a/ST_Register/db.xlsx
+++ b/ST_Register/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="215">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1809,8 +1809,8 @@
   </sheetPr>
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6374,8 +6374,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6640,7 +6640,9 @@
       <c r="D9" s="1">
         <v>255</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">

--- a/ST_Register/db.xlsx
+++ b/ST_Register/db.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="215">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1810,7 +1810,7 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6374,8 +6374,8 @@
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7093,13 +7093,23 @@
     </row>
     <row r="29" spans="1:17" s="13" customFormat="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="15"/>

--- a/ST_Register/db.xlsx
+++ b/ST_Register/db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7695" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="69" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="221">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -1082,11 +1082,41 @@
     <t>is_synced</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1560,7 +1590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1592,10 +1622,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1627,7 +1656,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1803,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -3313,14 +3341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3540,13 +3568,21 @@
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="1">
+        <v>255</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -3559,13 +3595,19 @@
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -4792,7 +4834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -6368,13 +6410,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8032,7 +8074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -9566,7 +9608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -11085,7 +11127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -12604,7 +12646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
